--- a/Microservices/FilesMicroservice/Files.Api/wwwroot/templates/WorkOrderTemplate.xlsx
+++ b/Microservices/FilesMicroservice/Files.Api/wwwroot/templates/WorkOrderTemplate.xlsx
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>WorkOderId</t>
+    <t>WorkOrderId</t>
   </si>
   <si>
     <t>ProductNumber</t>

--- a/Microservices/FilesMicroservice/Files.Api/wwwroot/templates/WorkOrderTemplate.xlsx
+++ b/Microservices/FilesMicroservice/Files.Api/wwwroot/templates/WorkOrderTemplate.xlsx
@@ -76,11 +76,11 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="49" applyNumberFormat="1" fontId="0" applyFont="1" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -120,7 +120,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/Microservices/FilesMicroservice/Files.Api/wwwroot/templates/WorkOrderTemplate.xlsx
+++ b/Microservices/FilesMicroservice/Files.Api/wwwroot/templates/WorkOrderTemplate.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>WorkOrderId</t>
   </si>
@@ -21,6 +21,15 @@
   </si>
   <si>
     <t>Quantity</t>
+  </si>
+  <si>
+    <t>PartRevision</t>
+  </si>
+  <si>
+    <t>ProcessRevision</t>
+  </si>
+  <si>
+    <t>CustomerName</t>
   </si>
   <si>
     <t>Notes</t>
@@ -93,7 +102,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -103,6 +112,9 @@
     <col min="2" max="2" width="30" customWidth="1" style="1"/>
     <col min="3" max="3" width="30" customWidth="1" style="1"/>
     <col min="4" max="4" width="30" customWidth="1" style="1"/>
+    <col min="5" max="5" width="30" customWidth="1" style="1"/>
+    <col min="6" max="6" width="30" customWidth="1" style="1"/>
+    <col min="7" max="7" width="30" customWidth="1" style="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -118,6 +130,15 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <headerFooter/>
